--- a/exp_results.xlsx
+++ b/exp_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/infer_TempDataLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E11AD67-D58C-3C4E-BE1F-22454F0C1877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FABA4A-6266-F94B-B16B-FFDB7CDA1D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28960" windowHeight="17440" xr2:uid="{AB360DF6-4B39-8E4F-9F80-7BDD152B6CF2}"/>
   </bookViews>
@@ -222,17 +222,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +551,7 @@
   <dimension ref="B3:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,32 +564,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
@@ -625,6 +625,9 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="1">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -765,32 +768,32 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
@@ -828,7 +831,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1">
@@ -851,7 +854,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="2">
@@ -874,7 +877,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1">
@@ -943,7 +946,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="1">

--- a/exp_results.xlsx
+++ b/exp_results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yahuis/Desktop/git/infer_TempDataLog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FABA4A-6266-F94B-B16B-FFDB7CDA1D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D7986-8B55-7E42-91B8-2EBD330DBF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="600" windowWidth="28960" windowHeight="17440" xr2:uid="{AB360DF6-4B39-8E4F-9F80-7BDD152B6CF2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{AB360DF6-4B39-8E4F-9F80-7BDD152B6CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t xml:space="preserve">Program </t>
   </si>
@@ -47,66 +47,24 @@
     <t>Time</t>
   </si>
   <si>
-    <t>1.8_AF_terminate</t>
-  </si>
-  <si>
-    <t>2.4_toylin1</t>
-  </si>
-  <si>
-    <t>5.0_AF_parity_test</t>
-  </si>
-  <si>
     <t>Loc</t>
   </si>
   <si>
-    <t xml:space="preserve">EF(term=1) </t>
-  </si>
-  <si>
     <t>EF(resp &gt;= 5)</t>
   </si>
   <si>
-    <t>!(AG((timer_1 = 0) -&gt; AF(output_1 == 1)))</t>
-  </si>
-  <si>
-    <t>AG((AF(t == 1)) and (AF(t == 0)))</t>
-  </si>
-  <si>
     <t>EF(x &lt; 0)</t>
   </si>
   <si>
     <t>AF(y==1)</t>
   </si>
   <si>
-    <t>AU(init == 0)(AU(init == 1)(AG(init == 3))) or (AG(init == 1)))</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> --</t>
-  </si>
-  <si>
     <t>cmark</t>
   </si>
   <si>
-    <t>3.15_AGAF_toggl…</t>
-  </si>
-  <si>
-    <t>3.14_timer-simple …</t>
-  </si>
-  <si>
-    <t>4.1_AF_Bangalore …</t>
-  </si>
-  <si>
-    <t>3.9_coolant_basis …</t>
-  </si>
-  <si>
     <t>toolName</t>
   </si>
   <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>unk</t>
-  </si>
-  <si>
     <t>Exp.</t>
   </si>
   <si>
@@ -165,13 +123,151 @@
   </si>
   <si>
     <t>OS frag. 3</t>
+  </si>
+  <si>
+    <t>AF(return())</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>NestedLoop</t>
+  </si>
+  <si>
+    <t>acqrel.c</t>
+  </si>
+  <si>
+    <t>test_global.c</t>
+  </si>
+  <si>
+    <t>test_until.c</t>
+  </si>
+  <si>
+    <t>next.c</t>
+  </si>
+  <si>
+    <t>AX{x==0}</t>
+  </si>
+  <si>
+    <t>AF{AG{y &gt; 0}}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>AF_terminate</t>
+  </si>
+  <si>
+    <t>toylin1</t>
+  </si>
+  <si>
+    <t>timer-simple …</t>
+  </si>
+  <si>
+    <t>AGAF_toggl…</t>
+  </si>
+  <si>
+    <t>AF_parity_test</t>
+  </si>
+  <si>
+    <t>multiChoice.c</t>
+  </si>
+  <si>
+    <t>coolant_basi …</t>
+  </si>
+  <si>
+    <t>test_existent…</t>
+  </si>
+  <si>
+    <t>AF_Bangalo …</t>
+  </si>
+  <si>
+    <t>AU(init=0)(AU(init=1)(AG(init=3)))</t>
+  </si>
+  <si>
+    <t>AG((AF(t=1)) and (AF(t=0)))</t>
+  </si>
+  <si>
+    <t>!(AG((timer_1=0) -&gt; AF(output_1=1)))</t>
+  </si>
+  <si>
+    <t>EF{r=1}</t>
+  </si>
+  <si>
+    <t>AU{x &gt;= y}{x=y}</t>
+  </si>
+  <si>
+    <t>AF{{x=4}or{x=-4}}</t>
+  </si>
+  <si>
+    <t>{EF{x=4}}and {EF{x=-4}}</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>xmarkctl</t>
+  </si>
+  <si>
+    <t>cmarkctl</t>
+  </si>
+  <si>
+    <t>unkctl</t>
+  </si>
+  <si>
+    <t>libvncserver(c311535)</t>
+  </si>
+  <si>
+    <t>Ffmpeg(a6cba06)</t>
+  </si>
+  <si>
+    <t>cmus(d5396e4)</t>
+  </si>
+  <si>
+    <t>e2fsprogs(caa6003)</t>
+  </si>
+  <si>
+    <t>csound-android(7a611ab)</t>
+  </si>
+  <si>
+    <t>asterisk(3322180)</t>
+  </si>
+  <si>
+    <t>dpdk(cd64eeac)</t>
+  </si>
+  <si>
+    <t>pure-ftpd(37ad222)</t>
+  </si>
+  <si>
+    <t>xorg-server(930b9a06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTL Bugs </t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>AG (user_quota_size- quota.size&lt;0 -&gt; AF (addreply(552)))</t>
+  </si>
+  <si>
+    <t>Loc(Datalog)</t>
+  </si>
+  <si>
+    <t>toolName-repair</t>
+  </si>
+  <si>
+    <t>Program Index</t>
+  </si>
+  <si>
+    <t>AG({A=1}-&gt;{AF{R==1}})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +282,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,6 +336,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -398,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,463 +654,1051 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72A67E8-BA4A-F94A-AC82-8CCA6228299E}">
-  <dimension ref="B3:I23"/>
+  <dimension ref="A3:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1">
+        <v>58</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.219</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>408</v>
+      </c>
+      <c r="G20" s="1">
+        <f>SUM(G5:G19)</f>
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.8450000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>17</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15.254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6.9039999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5.952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3.6539999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1">
         <v>22</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1">
+        <v>12.686999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.7120000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>23</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="10">
+        <v>3.1110000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.5550000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <f>SUM(C26:C34)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="1">
+        <v>370</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1">
+        <v>90</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="1">
+        <v>90</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1">
+        <v>90</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="1">
+        <v>370</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="1">
+        <v>370</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>370</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
-        <v>90</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1">
-        <v>90</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1">
-        <v>90</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1">
-        <v>370</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1">
-        <v>370</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
+      <c r="G79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
+  <mergeCells count="24">
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D40:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
